--- a/data/trans_bre/P1404-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1404-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.741627034349253</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.35608211654538</v>
+        <v>2.356082116545386</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4923873246996962</v>
@@ -649,7 +649,7 @@
         <v>0.2205666793707025</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1579363979396477</v>
+        <v>0.1579363979396481</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2705272701293977</v>
+        <v>0.2886206939798738</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.847006058393326</v>
+        <v>-2.000315259850263</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.111599998420177</v>
+        <v>-1.107264198357396</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.312602703295992</v>
+        <v>-1.095378390921917</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02560345265440591</v>
+        <v>0.02871749494615587</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1232493314738763</v>
+        <v>-0.1332909315130184</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.08182737626919381</v>
+        <v>-0.07513585801876328</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.07393841978663715</v>
+        <v>-0.06016162951501947</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.13282627839972</v>
+        <v>6.316352197641163</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.922586976704652</v>
+        <v>5.586829324405299</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.333008539398072</v>
+        <v>6.598015435324473</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.662413656625838</v>
+        <v>5.591098188059588</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.101565251179353</v>
+        <v>1.190440315549687</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5514190883552933</v>
+        <v>0.4996791987101409</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5734718949674015</v>
+        <v>0.6236149158472133</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4381661960690461</v>
+        <v>0.4253951005087167</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2826233630804896</v>
+        <v>-0.5259099154597127</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5276601347833098</v>
+        <v>-0.1573379477381973</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.3471942770749821</v>
+        <v>-0.4547385629941694</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.174298994289948</v>
+        <v>-1.014799455428757</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02917373737817803</v>
+        <v>-0.06222561456746871</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04192098885900426</v>
+        <v>-0.01786262507643967</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02546864989317836</v>
+        <v>-0.03212587469246173</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07000626577124529</v>
+        <v>-0.06595935849566013</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.350388923094843</v>
+        <v>5.47933339633525</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.763717560085194</v>
+        <v>5.916937992529116</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.926816472505775</v>
+        <v>5.654979688740817</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.212123961314114</v>
+        <v>4.485149501527018</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7044348751561132</v>
+        <v>0.7297207384899254</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5716202758557949</v>
+        <v>0.6069923788101159</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.545278518709463</v>
+        <v>0.5343149781050193</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3434896624098627</v>
+        <v>0.3544236077849355</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7158982258481329</v>
+        <v>0.3421534514104916</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7859699097216094</v>
+        <v>-0.8363366127013633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.780990402031036</v>
+        <v>-4.733232024696891</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.241468778941036</v>
+        <v>-5.525067081358668</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0700240607751612</v>
+        <v>0.02944362365371987</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.07665646578216673</v>
+        <v>-0.07226201395555014</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3343211194979139</v>
+        <v>-0.33436056143614</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3021757248239691</v>
+        <v>-0.3129773982235123</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.753443219913781</v>
+        <v>6.986283913368259</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.991953736238239</v>
+        <v>6.240751776175179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.324941657969581</v>
+        <v>2.005047593207461</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.118013071059192</v>
+        <v>1.033839052926521</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.150397652134514</v>
+        <v>1.227506941356133</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7338395061208896</v>
+        <v>0.7550758775014543</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.220689366775989</v>
+        <v>0.1876246249227863</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.08545032510064812</v>
+        <v>0.08150154358819708</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.757481402199445</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.024783729374745</v>
+        <v>4.024783729374742</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1124172385132431</v>
@@ -949,7 +949,7 @@
         <v>0.2951250431734967</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2935416683525826</v>
+        <v>0.2935416683525823</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.558567707770445</v>
+        <v>-1.528382962531821</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.8871407425377158</v>
+        <v>-0.680942660610065</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1160403853999587</v>
+        <v>-0.2204961334981723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.236879350941384</v>
+        <v>1.343373628754313</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1770266484768316</v>
+        <v>-0.1685257718103311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06434805912631801</v>
+        <v>-0.05482020708408378</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008119297186778247</v>
+        <v>-0.02233259031374503</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07730970083688782</v>
+        <v>0.08614317072986684</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.403688362409676</v>
+        <v>3.453401319197132</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.254770194584797</v>
+        <v>5.672433413400348</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.746234848858469</v>
+        <v>5.752706317602316</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.814569811884641</v>
+        <v>6.772312023759232</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4903390146073214</v>
+        <v>0.4858541714827533</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5434545871638511</v>
+        <v>0.5944222200357754</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7443318828286042</v>
+        <v>0.7247252361540578</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5576323152268078</v>
+        <v>0.5527045801050894</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.786855609829535</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.713230194043649</v>
+        <v>1.713230194043647</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2999192547102843</v>
@@ -1049,7 +1049,7 @@
         <v>0.1559989476618705</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1191759236290591</v>
+        <v>0.1191759236290589</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.072409995092105</v>
+        <v>0.9406526449914743</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7352271573657981</v>
+        <v>0.708966580520787</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1207105084735287</v>
+        <v>0.06035538883768409</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3606534850613885</v>
+        <v>0.1955124301857797</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1213083673189235</v>
+        <v>0.1083879776710829</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06190355330426407</v>
+        <v>0.05835937242277409</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01628145419277445</v>
+        <v>0.003521572623170105</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.0238283853141129</v>
+        <v>0.01329151159841917</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.765359978419092</v>
+        <v>3.806988073618496</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.161602871674742</v>
+        <v>4.16412253748025</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.41408127905149</v>
+        <v>3.485060799973408</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.254170718025602</v>
+        <v>3.243230375206389</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5225008895514013</v>
+        <v>0.5284452320035327</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3920268997128977</v>
+        <v>0.3924841857984905</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3189789498193987</v>
+        <v>0.3232507554040313</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2363903338136363</v>
+        <v>0.2443234859808972</v>
       </c>
     </row>
     <row r="19">
